--- a/JAVA18 DACDUC DATABASE DESIGN.xlsx
+++ b/JAVA18 DACDUC DATABASE DESIGN.xlsx
@@ -1,14 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1228BAAC-4171-4289-83EA-1E833F85DBB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="422" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" tabRatio="422" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B1. Mô hình quan niệm" sheetId="1" r:id="rId1"/>
-    <sheet name="B2. Mô hình logic" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="B2. Mô hình logic" sheetId="2" r:id="rId3"/>
+    <sheet name="B3.Mô hình quan hệ" sheetId="3" r:id="rId4"/>
+    <sheet name="cơ sở dữ liệu vật lý" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E10" authorId="0" shapeId="0">
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="0" shapeId="0">
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -102,12 +106,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="S4" authorId="0" shapeId="0">
+    <comment ref="S4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -155,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M7" authorId="0" shapeId="0">
+    <comment ref="M7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -180,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -205,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -229,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0">
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -253,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S13" authorId="0" shapeId="0">
+    <comment ref="S13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -277,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -301,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="0" shapeId="0">
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -326,7 +330,260 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 - N</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="S4" authorId="0" shapeId="0" xr:uid="{4746275C-A3DC-4E0E-B992-526239D13F54}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+thuộc tính đa trị</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{4FE2D017-04CE-4464-9234-6E8CBEE6A17B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Đã đặt hàng, đang đóng gói, đang giao, giao thành công, giao thất bại</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M7" authorId="0" shapeId="0" xr:uid="{00821248-B2FB-4B7F-A99F-67BF768331EA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+varchar || char
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{F6171112-CA8F-4222-A5E2-0B246DA474AC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+entity
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{9FE12827-E42F-499C-9317-6E7EF9E98C1A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+varchar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{D27396C8-026F-4DD4-9A38-592FA391E807}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Số lượng mặt hàng thuộc đơn hàng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S13" authorId="0" shapeId="0" xr:uid="{A1BEFCA7-85DF-4268-B905-38072DE5131F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+thuộc tính đơn trị</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{B05F002B-E570-444C-AD99-E80A3FEBBEFF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Số lượng còn lại</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{F2055620-8F52-4D58-B23D-6B06DB537AA9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chức vụ
+N - N</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{27A7ED2D-64E0-4CE0-87DC-64C8A3DF9CCB}">
       <text>
         <r>
           <rPr>
@@ -355,7 +612,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="118">
   <si>
     <t>Xác định các đối tượng cần lưu trữ
 Xác định các thuộc tính, thông tin của từng đối tượng</t>
@@ -642,13 +899,178 @@
   </si>
   <si>
     <t>T12</t>
+  </si>
+  <si>
+    <t>2. Xác định lại các thuộc tính đơn của từng bảng</t>
+  </si>
+  <si>
+    <t>3. Xác định khóa cchính</t>
+  </si>
+  <si>
+    <t>4. Xử lý các mối quan hệ--&gt;khóa ngoại(11,1n),bảng mới(nn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Có 2 cách để tạo ra cơ sở dữ liệu vật lý nằm trong chương trình (Mysql Workbench) của hệ quản trị cơ sở dữ liệu(MySql)</t>
+  </si>
+  <si>
+    <t>DML:Data Manipulation Language: INSERT/DELETE/UPDATE/SELECT</t>
+  </si>
+  <si>
+    <t>DDL: CREATE/ALTER/DROP DATABASE, TABLE,CONSTRAINT,FUNCTION,PROCEDURE,VIEW==&gt; structure,cấu trúc của cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>Lưu ý 1: Tạo các bảng cha(1) trước--&gt;bảng con(N),thêm ràng buộc khóa ngoại đến bảng cha(1)</t>
+  </si>
+  <si>
+    <t>Lưu ý 2:Tạo ra tất cả các bảng tùy ý --&gt;xem mối quan hệ để tạo ra ràng buộc khóa ngoại sau</t>
+  </si>
+  <si>
+    <t>sau khi thiết kế xong co sở dữ liệu (mô hình quan hệ) ở bước 3:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thực tế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:Quản lý theo phiên bản</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thực tế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:Tạo bảng cha(riêng lẻ) trước,những cụm chứa bảng cha ,con có quan hệ vớ nhau được tạo ra 1 lần--&gt;tạo từng cái pathset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(sql file)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> để tạo ra DB object cũng như lưu trữ code tạo DB</t>
+    </r>
+  </si>
+  <si>
+    <t>Thực tế:Quá trình quản lý phiên bản cho database --&gt; hỗ rọ cho biệc migation</t>
+  </si>
+  <si>
+    <t>B1:Tạo ra ERD - diagram có structure của mô hình quan hệ ở bước 3:File--&gt;New Model--&gt;Add Diagram</t>
+  </si>
+  <si>
+    <t>B2:Từ Diagram chuyển đổi sang SQL-DDL:Database--&gt;Forward Engineer--&gt;Lưu nội dung code SQL DDL lại (từ Diagram --&gt; SQL file)</t>
+  </si>
+  <si>
+    <t>Nếu muốn xem Diagram: Database --&gt; Revere Engineer(SQL--&gt; Diagram)</t>
+  </si>
+  <si>
+    <t>B3:Kết nối vào account(connection) của HQLCSDL --&gt; mở file sql ddl --&gt; thực thi--&gt; cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>Thuận lơi:Tạo nhanh 1 CSDL, dễ hình dung, kéo thả tự sinh ra khóa ngoại hay bảng mới khi có quan hệ 1-1,1-N,N-N</t>
+  </si>
+  <si>
+    <t>Hạn chế1:Khó quản lý patchset,sql version</t>
+  </si>
+  <si>
+    <t>Hạn chế 2:Khi thay đổi database structure, nếu reverse eng--&gt;thay đổi--&gt;forward eng(ddl)--&gt; mất dữ liệu cũ</t>
+  </si>
+  <si>
+    <t>Khuyến khích:Lần 1--&gt; tạo diagram hoàn chỉnh --&gt; nếu có sai thì code tay để chỉnh sửa, lưu phiên bản</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cách 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:Sử dụng SQL-DDL(Data Definition Language) code tay các dòng lệnh để tạo ra từng TABLE,COLUMN,CONSTRAINT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cách 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Sử dụng TOOL-MySQL workbench</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,8 +1126,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -733,6 +1169,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,7 +1206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -802,18 +1244,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -833,6 +1266,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1114,29 +1560,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E21" activeCellId="1" sqref="F22 E21:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="7" customWidth="1"/>
-    <col min="8" max="11" width="22.7109375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" style="7" customWidth="1"/>
-    <col min="13" max="101" width="22.7109375" style="7" customWidth="1"/>
-    <col min="102" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="22.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" style="7" customWidth="1"/>
+    <col min="8" max="11" width="22.6640625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="30.5546875" style="7" customWidth="1"/>
+    <col min="13" max="101" width="22.6640625" style="7" customWidth="1"/>
+    <col min="102" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="7" t="s">
         <v>34</v>
       </c>
@@ -1144,17 +1590,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
@@ -1162,10 +1608,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+    <row r="4" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
@@ -1173,12 +1619,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1213,7 +1659,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
@@ -1240,7 +1686,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1267,7 +1713,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
@@ -1290,7 +1736,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -1311,7 +1757,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1332,7 +1778,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1353,7 +1799,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1374,7 +1820,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1395,7 +1841,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1414,7 +1860,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1433,7 +1879,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
@@ -1450,7 +1896,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
@@ -1465,7 +1911,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1478,8 +1924,8 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>16</v>
       </c>
@@ -1487,7 +1933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
@@ -1496,48 +1942,48 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D4"/>
@@ -1549,29 +1995,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B01E83-8111-46E7-A859-1AB918410C79}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="7" customWidth="1"/>
-    <col min="8" max="11" width="22.7109375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" style="7" customWidth="1"/>
-    <col min="13" max="101" width="22.7109375" style="7" customWidth="1"/>
-    <col min="102" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="22.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" style="7" customWidth="1"/>
+    <col min="8" max="11" width="22.6640625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="30.5546875" style="7" customWidth="1"/>
+    <col min="13" max="101" width="22.6640625" style="7" customWidth="1"/>
+    <col min="102" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="7" t="s">
         <v>34</v>
       </c>
@@ -1579,17 +2037,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="2:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
@@ -1597,10 +2055,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+    <row r="4" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
@@ -1626,7 +2084,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>83</v>
       </c>
@@ -1669,17 +2127,17 @@
       <c r="P5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="Q5" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="R5" s="22" t="s">
+      <c r="R5" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="S5" s="23" t="s">
+      <c r="S5" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="2:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1717,45 +2175,45 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="2:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
+    <row r="7" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1789,12 +2247,12 @@
       <c r="L8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="21"/>
-    </row>
-    <row r="9" spans="2:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q8" s="18"/>
+    </row>
+    <row r="9" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
@@ -1836,7 +2294,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -1865,10 +2323,10 @@
       <c r="P10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="Q10" s="21" t="s">
+      <c r="Q10" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="R10" s="22" t="s">
+      <c r="R10" s="19" t="s">
         <v>63</v>
       </c>
       <c r="S10" s="7" t="s">
@@ -1884,7 +2342,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1908,8 +2366,8 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="2:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
+    <row r="12" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17" t="s">
         <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1930,8 +2388,8 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="2:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+    <row r="13" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="17" t="s">
         <v>81</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1951,14 +2409,14 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="Q13" s="24" t="s">
+      <c r="Q13" s="21" t="s">
         <v>75</v>
       </c>
       <c r="S13" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1985,17 +2443,17 @@
       <c r="P14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="Q14" s="21" t="s">
+      <c r="Q14" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="R14" s="22" t="s">
+      <c r="R14" s="19" t="s">
         <v>63</v>
       </c>
       <c r="S14" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
@@ -2020,17 +2478,17 @@
       <c r="P15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="Q15" s="21" t="s">
+      <c r="Q15" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="R15" s="22" t="s">
+      <c r="R15" s="19" t="s">
         <v>63</v>
       </c>
       <c r="S15" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="2:22" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
@@ -2054,17 +2512,17 @@
       <c r="P16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="Q16" s="21" t="s">
+      <c r="Q16" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="R16" s="22" t="s">
+      <c r="R16" s="19" t="s">
         <v>63</v>
       </c>
       <c r="S16" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
@@ -2087,17 +2545,17 @@
       <c r="P17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="Q17" s="21" t="s">
+      <c r="Q17" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="R17" s="22" t="s">
+      <c r="R17" s="19" t="s">
         <v>63</v>
       </c>
       <c r="S17" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
@@ -2113,7 +2571,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
@@ -2129,26 +2587,26 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P20" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
       <c r="P21" s="7" t="s">
         <v>77</v>
       </c>
@@ -2156,19 +2614,19 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18"/>
-      <c r="B22" s="15" t="s">
+    <row r="22" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="26"/>
+      <c r="B22" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
       <c r="P22" s="7" t="s">
         <v>64</v>
       </c>
@@ -2176,18 +2634,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15" t="s">
+    <row r="23" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
       <c r="P23" s="7" t="s">
         <v>69</v>
       </c>
@@ -2195,18 +2653,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="16" t="s">
+    <row r="24" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
       <c r="P24" s="7" t="s">
         <v>70</v>
       </c>
@@ -2214,18 +2672,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="16" t="s">
+    <row r="25" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="15"/>
+      <c r="H25" s="13"/>
       <c r="P25" s="7" t="s">
         <v>71</v>
       </c>
@@ -2233,16 +2691,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15" t="s">
+    <row r="26" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
       <c r="P26" s="7" t="s">
         <v>79</v>
       </c>
@@ -2250,31 +2708,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:19" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:D4"/>
@@ -2284,4 +2742,888 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7150AA2-464A-4235-8C7B-E0A63CC9A5C3}">
+  <dimension ref="A1:V51"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F25" sqref="B24:F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="23.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" style="7" customWidth="1"/>
+    <col min="8" max="11" width="22.6640625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="30.5546875" style="7" customWidth="1"/>
+    <col min="13" max="101" width="22.6640625" style="7" customWidth="1"/>
+    <col min="102" max="16384" width="9.109375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O5" s="7">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="18"/>
+    </row>
+    <row r="9" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="O10" s="7">
+        <v>1</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="Q13" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="O14" s="7">
+        <v>1</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="R14" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="O15" s="7">
+        <v>1</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="O16" s="7">
+        <v>1</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="R16" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="O17" s="7">
+        <v>1</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="R17" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P20" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="P21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="26"/>
+      <c r="B22" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="P22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="P23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="P24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="13"/>
+      <c r="P25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="13"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="P26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:19" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="27.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="A21:A22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90EE0D8-98B8-4D06-A505-998BCAEF946D}">
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="204.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="27"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="27"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="27"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="27"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="27"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="27"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="27"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>